--- a/details_output.xlsx
+++ b/details_output.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>56965</v>
+        <v>49235</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2173</v>
+        <v>1958</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2479</v>
+        <v>2232</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2982</v>
+        <v>2685</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -627,39 +627,45 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3139</v>
+        <v>2826</v>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>analog</t>
+          <t>original</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Вставка</t>
+          <t>Шлейф проводов фонаря заднего</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ST1151311L</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>26551-4AA0A</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>NISSAN</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2173</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>2120</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NIHN</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -669,25 +675,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Фонарь левый</t>
+          <t>Вставка</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1151311LU</t>
+          <t>ST1151311L</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DEPO</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2684</v>
+        <v>1958</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -704,20 +710,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>L120010201L</t>
+          <t>1151311LU</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SAILING</t>
+          <t>DEPO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2982</v>
+        <v>2417</v>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
@@ -734,20 +740,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16330701</t>
+          <t>L120010201L</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>SAILING</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3030</v>
+        <v>2685</v>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
@@ -764,20 +770,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CMP1301203</t>
+          <t>16330701</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>COMPONENT</t>
+          <t>AVG</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3139</v>
+        <v>2728</v>
       </c>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -794,58 +800,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GMTL19182L</t>
+          <t>CMP1301203</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GAMMA</t>
+          <t>COMPONENT</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4676</v>
+        <v>2826</v>
       </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>original</t>
+          <t>analog</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Шлейф проводов фонаря заднего</t>
+          <t>Фонарь левый</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>26551-4AA0A</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
+          <t>GMTL19182L</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>GAMMA</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2354</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>NIHN</t>
-        </is>
-      </c>
+        <v>4210</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>17177</v>
+        <v>15001</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3561</v>
+        <v>3206</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3630</v>
+        <v>3268</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3875</v>
+        <v>3489</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3901</v>
+        <v>3512</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4148</v>
+        <v>3735</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4765</v>
+        <v>4290</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4902</v>
+        <v>4413</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4939</v>
+        <v>4447</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5304</v>
+        <v>4776</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5737</v>
+        <v>5166</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6799</v>
+        <v>6121</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7257</v>
+        <v>6600</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7750</v>
+        <v>6838</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8461</v>
+        <v>7465</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8736</v>
+        <v>7708</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>716</v>
+        <v>645</v>
       </c>
       <c r="H30" t="inlineStr"/>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>769</v>
+        <v>692</v>
       </c>
       <c r="H31" t="inlineStr"/>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>841</v>
+        <v>757</v>
       </c>
       <c r="H32" t="inlineStr"/>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>999</v>
+        <v>900</v>
       </c>
       <c r="H33" t="inlineStr"/>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1179</v>
+        <v>1061</v>
       </c>
       <c r="H34" t="inlineStr"/>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1334</v>
+        <v>1201</v>
       </c>
       <c r="H35" t="inlineStr"/>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1344</v>
+        <v>1211</v>
       </c>
       <c r="H36" t="inlineStr"/>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1403</v>
+        <v>1263</v>
       </c>
       <c r="H37" t="inlineStr"/>
     </row>
@@ -1676,20 +1676,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6PK1823</t>
+          <t>6PK1822EXTRA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>LYNX</t>
+          <t>CONTITECH</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1414</v>
+        <v>1281</v>
       </c>
       <c r="H38" t="inlineStr"/>
     </row>
@@ -1706,20 +1706,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6PK1822EXTRA</t>
+          <t>6PK1823</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CONTITECH</t>
+          <t>LYNX</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1423</v>
+        <v>1283</v>
       </c>
       <c r="H39" t="inlineStr"/>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1480</v>
+        <v>1333</v>
       </c>
       <c r="H40" t="inlineStr"/>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1503</v>
+        <v>1356</v>
       </c>
       <c r="H41" t="inlineStr"/>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1763</v>
+        <v>1587</v>
       </c>
       <c r="H42" t="inlineStr"/>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2111</v>
+        <v>1900</v>
       </c>
       <c r="H43" t="inlineStr"/>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3225</v>
+        <v>2904</v>
       </c>
       <c r="H44" t="inlineStr"/>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4989</v>
+        <v>4492</v>
       </c>
       <c r="H45" t="inlineStr"/>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>17218</v>
+        <v>15037</v>
       </c>
       <c r="H46" t="inlineStr"/>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>716</v>
+        <v>645</v>
       </c>
       <c r="H47" t="inlineStr"/>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>769</v>
+        <v>692</v>
       </c>
       <c r="H48" t="inlineStr"/>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1344</v>
+        <v>1211</v>
       </c>
       <c r="H49" t="inlineStr"/>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1403</v>
+        <v>1263</v>
       </c>
       <c r="H50" t="inlineStr"/>
     </row>
@@ -2066,20 +2066,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>6PK1823</t>
+          <t>6PK1822EXTRA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>LYNX</t>
+          <t>CONTITECH</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1414</v>
+        <v>1281</v>
       </c>
       <c r="H51" t="inlineStr"/>
     </row>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>6PK1822EXTRA</t>
+          <t>6PK1823</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CONTITECH</t>
+          <t>LYNX</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1423</v>
+        <v>1283</v>
       </c>
       <c r="H52" t="inlineStr"/>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1503</v>
+        <v>1356</v>
       </c>
       <c r="H53" t="inlineStr"/>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2111</v>
+        <v>1900</v>
       </c>
       <c r="H54" t="inlineStr"/>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3225</v>
+        <v>2904</v>
       </c>
       <c r="H55" t="inlineStr"/>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3561</v>
+        <v>3206</v>
       </c>
       <c r="H56" t="inlineStr"/>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4989</v>
+        <v>4492</v>
       </c>
       <c r="H57" t="inlineStr"/>
     </row>
